--- a/src/static/area2.xlsx
+++ b/src/static/area2.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet99" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="区域" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -416,42 +416,54 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>区域ID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>区域名_1</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>2022</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>44653</v>
-      </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
-        <v>1</v>
+          <t>区域名</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>区域対象年</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>開始日</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>終了日</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>農地面積</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>地下面積</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>農作物被害額</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>区域名_10</t>
+          <t>区域名_1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -710,6 +722,36 @@
         <v>1</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>区域名_10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>44653</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
     </row>
